--- a/data/outputs/data-cube-straightforward-implementation-minsup-1000.xlsx
+++ b/data/outputs/data-cube-straightforward-implementation-minsup-1000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,20 +458,910 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>['female']</t>
+          <t>[0.0]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13910</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>[0.0, 0]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[0.0, 0, '5-14 years']</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[0.0, 0, 'Millenials']</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[0.0, 0, 'female']</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[0.0, 0, 'male']</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[0.0, '5-14 years']</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[0.0, 'Millenials']</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[0.0, 'female']</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[0.0, 'male']</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[0, '5-14 years']</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[0, 'Millenials']</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[0, 'female']</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[0, 'male']</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[2]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[2000]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[2001]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>[2002]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>[2003]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>[2004]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>[2005]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>[2006]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>[2007]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>[2008]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>[2009]</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>[2010]</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>[2011]</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>['15-24 years']</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>['15-24 years', 'Generation X']</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>['15-24 years', 'Generation X', 'female']</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>['15-24 years', 'Generation X', 'male']</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>['15-24 years', 'Millenials']</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>['15-24 years', 'Millenials', 'female']</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>['15-24 years', 'Millenials', 'male']</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>['15-24 years', 'female']</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>['15-24 years', 'male']</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>['25-34 years']</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>['25-34 years', 'Boomers']</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>['25-34 years', 'Generation X']</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>['25-34 years', 'Generation X', 'female']</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>['25-34 years', 'Generation X', 'male']</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>['25-34 years', 'female']</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>['25-34 years', 'male']</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>['35-54 years']</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>['35-54 years', 'Boomers']</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>['35-54 years', 'Boomers', 'female']</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>['35-54 years', 'Boomers', 'male']</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>['35-54 years', 'female']</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>['35-54 years', 'male']</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>['5-14 years']</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>['5-14 years', 'Generation Z']</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>['5-14 years', 'Millenials']</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>['5-14 years', 'Millenials', 'female']</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>['5-14 years', 'Millenials', 'male']</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>['5-14 years', 'female']</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>['5-14 years', 'male']</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>['55-74 years']</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>['55-74 years', 'Silent']</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>['55-74 years', 'Silent', 'female']</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>['55-74 years', 'Silent', 'male']</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>['55-74 years', 'female']</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>['55-74 years', 'male']</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>['75+ years']</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>['75+ years', 'G.I. Generation']</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>['75+ years', 'G.I. Generation', 'female']</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>['75+ years', 'G.I. Generation', 'male']</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>['75+ years', 'Silent']</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>['75+ years', 'Silent', 'female']</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>['75+ years', 'Silent', 'male']</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>['75+ years', 'female']</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>['75+ years', 'male']</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>['Boomers']</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>['Boomers', 'female']</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>['Boomers', 'male']</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>['G.I. Generation']</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>['G.I. Generation', 'female']</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>['G.I. Generation', 'male']</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>['Generation X']</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6408</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>['Generation X', 'female']</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>['Generation X', 'male']</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>['Generation Z']</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>['Millenials']</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>['Millenials', 'female']</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>['Millenials', 'male']</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>['Silent']</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6364</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>['Silent', 'female']</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>['Silent', 'male']</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>['female']</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>13910</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>['male']</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B93" t="n">
         <v>13910</v>
       </c>
     </row>
